--- a/testdataDemoqa.xlsx
+++ b/testdataDemoqa.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="WebtablesElement" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="TextboxSheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Current Address</t>
+  </si>
+  <si>
+    <t>Permanent Address</t>
+  </si>
+  <si>
+    <t>Test User</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Test Current Address</t>
+  </si>
+  <si>
+    <t>Test Permanent Address</t>
+  </si>
   <si>
     <t>firstName</t>
   </si>
@@ -40,18 +64,18 @@
     <t>department</t>
   </si>
   <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>rajesh@gmail.com</t>
+  </si>
+  <si>
     <t>IT</t>
   </si>
   <si>
-    <t>Rajesh</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>rajesh@gmail.com</t>
-  </si>
-  <si>
     <t>Priya</t>
   </si>
   <si>
@@ -59,48 +83,6 @@
   </si>
   <si>
     <t>priya@gmail.com</t>
-  </si>
-  <si>
-    <t>Priti</t>
-  </si>
-  <si>
-    <t>Gupta</t>
-  </si>
-  <si>
-    <t>priti@gmail.com</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Jaya</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>jaya@gmail.com</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Ganesh</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>ganesh@gmail.com</t>
-  </si>
-  <si>
-    <t>Ajay</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ajay@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -116,18 +98,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF17C6A3"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF17C6A3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,12 +131,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,51 +418,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -489,18 +468,18 @@
         <v>15000</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D3">
         <v>22</v>
@@ -509,199 +488,65 @@
         <v>18000</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>20000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>22000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>30000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>35000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1">
-        <v>23</v>
-      </c>
-      <c r="E1">
-        <v>20000</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>22000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>30000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
-      </c>
-      <c r="E4">
-        <v>35000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
